--- a/experiments/dbscan-ajk/instructor-xl/0.05/prediction.xlsx
+++ b/experiments/dbscan-ajk/instructor-xl/0.05/prediction.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -462,5807 +462,5807 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-1</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1</v>
+        <v>125</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-1</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-1</v>
+        <v>124</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-1</v>
+        <v>134</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-1</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-1</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-1</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-1</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-1</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-1</v>
+        <v>142</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-1</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-1</v>
+        <v>147</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-1</v>
+        <v>148</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-1</v>
+        <v>149</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-1</v>
+        <v>151</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-1</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-1</v>
+        <v>153</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-1</v>
+        <v>154</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-1</v>
+        <v>156</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-1</v>
+        <v>157</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-1</v>
+        <v>158</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-1</v>
+        <v>159</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-1</v>
+        <v>160</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-1</v>
+        <v>161</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-1</v>
+        <v>163</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-1</v>
+        <v>164</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-1</v>
+        <v>168</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-1</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-1</v>
+        <v>172</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-1</v>
+        <v>174</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-1</v>
+        <v>171</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-1</v>
+        <v>166</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-1</v>
+        <v>166</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1</v>
+        <v>172</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-1</v>
+        <v>169</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-1</v>
+        <v>173</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-1</v>
+        <v>176</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-1</v>
+        <v>177</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-1</v>
+        <v>179</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-1</v>
+        <v>179</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-1</v>
+        <v>180</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-1</v>
+        <v>181</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-1</v>
+        <v>165</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-1</v>
+        <v>166</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-1</v>
+        <v>169</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-1</v>
+        <v>170</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-1</v>
+        <v>178</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-1</v>
+        <v>173</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-1</v>
+        <v>182</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-1</v>
+        <v>183</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-1</v>
+        <v>184</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-1</v>
+        <v>185</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-1</v>
+        <v>186</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-1</v>
+        <v>187</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-1</v>
+        <v>188</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-1</v>
+        <v>189</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-1</v>
+        <v>190</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-1</v>
+        <v>189</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-1</v>
+        <v>187</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-1</v>
+        <v>191</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>-1</v>
+        <v>193</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>-1</v>
+        <v>192</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>-1</v>
+        <v>195</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>-1</v>
+        <v>196</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>-1</v>
+        <v>197</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>-1</v>
+        <v>198</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>-1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>-1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>-1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>-1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>-1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>-1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>-1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>-1</v>
+        <v>199</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>-1</v>
+        <v>205</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-1</v>
+        <v>202</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-1</v>
+        <v>203</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-1</v>
+        <v>204</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-1</v>
+        <v>206</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-1</v>
+        <v>207</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-1</v>
+        <v>208</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>-1</v>
+        <v>209</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-1</v>
+        <v>210</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>-1</v>
+        <v>212</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-1</v>
+        <v>213</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-1</v>
+        <v>214</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-1</v>
+        <v>215</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-1</v>
+        <v>216</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-1</v>
+        <v>217</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-1</v>
+        <v>218</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-1</v>
+        <v>219</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-1</v>
+        <v>221</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>-1</v>
+        <v>223</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>-1</v>
+        <v>224</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-1</v>
+        <v>225</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-1</v>
+        <v>226</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-1</v>
+        <v>226</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>-1</v>
+        <v>227</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-1</v>
+        <v>227</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>-1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>-1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>-1</v>
+        <v>228</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>-1</v>
+        <v>229</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-1</v>
+        <v>230</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>-1</v>
+        <v>235</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-1</v>
+        <v>231</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-1</v>
+        <v>231</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>-1</v>
+        <v>232</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>-1</v>
+        <v>233</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>-1</v>
+        <v>234</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>-1</v>
+        <v>236</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-1</v>
+        <v>165</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>-1</v>
+        <v>237</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>-1</v>
+        <v>205</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>-1</v>
+        <v>238</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>-1</v>
+        <v>237</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>-1</v>
+        <v>239</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-1</v>
+        <v>240</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>-1</v>
+        <v>241</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>-1</v>
+        <v>242</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>-1</v>
+        <v>257</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-1</v>
+        <v>256</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>-1</v>
+        <v>258</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>-1</v>
+        <v>259</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>-1</v>
+        <v>260</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>-1</v>
+        <v>260</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>-1</v>
+        <v>245</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>-1</v>
+        <v>250</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>-1</v>
+        <v>251</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>-1</v>
+        <v>252</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>-1</v>
+        <v>253</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>-1</v>
+        <v>255</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>-1</v>
+        <v>243</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>-1</v>
+        <v>244</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>-1</v>
+        <v>246</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>-1</v>
+        <v>247</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>-1</v>
+        <v>248</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>-1</v>
+        <v>249</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>-1</v>
+        <v>254</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>-1</v>
+        <v>261</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>-1</v>
+        <v>262</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>-1</v>
+        <v>264</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>-1</v>
+        <v>263</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>-1</v>
+        <v>264</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>-1</v>
+        <v>265</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>-1</v>
+        <v>264</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>-1</v>
+        <v>264</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>-1</v>
+        <v>264</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>-1</v>
+        <v>263</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>-1</v>
+        <v>266</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>-1</v>
+        <v>266</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>-1</v>
+        <v>267</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>-1</v>
+        <v>268</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>-1</v>
+        <v>269</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>-1</v>
+        <v>270</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>-1</v>
+        <v>266</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>-1</v>
+        <v>266</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>-1</v>
+        <v>271</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>-1</v>
+        <v>275</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>-1</v>
+        <v>276</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>-1</v>
+        <v>277</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>-1</v>
+        <v>278</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>-1</v>
+        <v>272</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>-1</v>
+        <v>273</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>-1</v>
+        <v>274</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>-1</v>
+        <v>274</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>-1</v>
+        <v>279</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>-1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>-1</v>
+        <v>281</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>-1</v>
+        <v>282</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>-1</v>
+        <v>283</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>-1</v>
+        <v>285</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>-1</v>
+        <v>285</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>-1</v>
+        <v>287</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>-1</v>
+        <v>288</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>-1</v>
+        <v>288</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>-1</v>
+        <v>289</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>-1</v>
+        <v>290</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>-1</v>
+        <v>284</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>-1</v>
+        <v>286</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>-1</v>
+        <v>286</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>-1</v>
+        <v>291</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>-1</v>
+        <v>292</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>-1</v>
+        <v>264</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>-1</v>
+        <v>293</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>-1</v>
+        <v>294</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>-1</v>
+        <v>295</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>-1</v>
+        <v>296</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>-1</v>
+        <v>297</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>-1</v>
+        <v>298</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>-1</v>
+        <v>301</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>-1</v>
+        <v>302</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>-1</v>
+        <v>299</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>-1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>-1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>-1</v>
+        <v>303</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>-1</v>
+        <v>304</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>-1</v>
+        <v>305</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>-1</v>
+        <v>306</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>-1</v>
+        <v>307</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>-1</v>
+        <v>308</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>311</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>309</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>312</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>2</v>
+        <v>313</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>2</v>
+        <v>314</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>4</v>
+        <v>314</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>4</v>
+        <v>315</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>5</v>
+        <v>316</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>5</v>
+        <v>317</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>6</v>
+        <v>325</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>6</v>
+        <v>318</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>7</v>
+        <v>319</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>7</v>
+        <v>320</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>8</v>
+        <v>321</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>8</v>
+        <v>322</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>8</v>
+        <v>323</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>9</v>
+        <v>324</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>9</v>
+        <v>326</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>9</v>
+        <v>327</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>9</v>
+        <v>321</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>9</v>
+        <v>328</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>9</v>
+        <v>329</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>10</v>
+        <v>330</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>10</v>
+        <v>331</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>11</v>
+        <v>332</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>11</v>
+        <v>332</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>11</v>
+        <v>333</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>12</v>
+        <v>334</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>12</v>
+        <v>335</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>13</v>
+        <v>336</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>13</v>
+        <v>336</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>13</v>
+        <v>337</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>13</v>
+        <v>338</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>14</v>
+        <v>339</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>14</v>
+        <v>340</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>15</v>
+        <v>286</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>15</v>
+        <v>341</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>15</v>
+        <v>286</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>15</v>
+        <v>342</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>15</v>
+        <v>343</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>16</v>
+        <v>345</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>16</v>
+        <v>344</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>17</v>
+        <v>346</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>17</v>
+        <v>347</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>18</v>
+        <v>348</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>18</v>
+        <v>349</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>19</v>
+        <v>350</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>19</v>
+        <v>350</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>20</v>
+        <v>350</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>20</v>
+        <v>351</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>21</v>
+        <v>352</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>21</v>
+        <v>353</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>22</v>
+        <v>352</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>22</v>
+        <v>354</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>23</v>
+        <v>355</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>23</v>
+        <v>356</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>24</v>
+        <v>357</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>24</v>
+        <v>358</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>24</v>
+        <v>359</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>24</v>
+        <v>360</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>25</v>
+        <v>361</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>25</v>
+        <v>362</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>26</v>
+        <v>380</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>26</v>
+        <v>381</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>27</v>
+        <v>382</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>27</v>
+        <v>383</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>28</v>
+        <v>384</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>28</v>
+        <v>384</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>29</v>
+        <v>385</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>29</v>
+        <v>386</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>3</v>
+        <v>387</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>3</v>
+        <v>388</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>30</v>
+        <v>389</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>30</v>
+        <v>363</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>31</v>
+        <v>364</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>31</v>
+        <v>365</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>32</v>
+        <v>366</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>32</v>
+        <v>371</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>33</v>
+        <v>374</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>33</v>
+        <v>375</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>33</v>
+        <v>367</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>33</v>
+        <v>368</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>33</v>
+        <v>369</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>37</v>
+        <v>370</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>37</v>
+        <v>372</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>37</v>
+        <v>373</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>37</v>
+        <v>376</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>34</v>
+        <v>377</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>34</v>
+        <v>266</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>35</v>
+        <v>266</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>35</v>
+        <v>266</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>35</v>
+        <v>378</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>35</v>
+        <v>379</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>36</v>
+        <v>390</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>36</v>
+        <v>281</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>38</v>
+        <v>392</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>38</v>
+        <v>393</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>41</v>
+        <v>394</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>41</v>
+        <v>391</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>41</v>
+        <v>395</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>39</v>
+        <v>396</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>39</v>
+        <v>397</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>40</v>
+        <v>398</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>40</v>
+        <v>399</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>42</v>
+        <v>401</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>43</v>
+        <v>402</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>43</v>
+        <v>403</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>44</v>
+        <v>404</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>44</v>
+        <v>405</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>45</v>
+        <v>406</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>45</v>
+        <v>407</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>46</v>
+        <v>405</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>46</v>
+        <v>408</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>47</v>
+        <v>408</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>47</v>
+        <v>409</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>48</v>
+        <v>409</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>48</v>
+        <v>264</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>48</v>
+        <v>410</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>49</v>
+        <v>411</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>49</v>
+        <v>412</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>50</v>
+        <v>413</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>50</v>
+        <v>414</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>50</v>
+        <v>151</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>50</v>
+        <v>415</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>51</v>
+        <v>417</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>51</v>
+        <v>418</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>52</v>
+        <v>416</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>52</v>
+        <v>420</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>53</v>
+        <v>421</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>53</v>
+        <v>422</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>55</v>
+        <v>423</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>55</v>
+        <v>424</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>56</v>
+        <v>424</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>56</v>
+        <v>425</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>57</v>
+        <v>426</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>58</v>
+        <v>427</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>58</v>
+        <v>428</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>60</v>
+        <v>429</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>60</v>
+        <v>430</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>61</v>
+        <v>431</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>61</v>
+        <v>432</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>62</v>
+        <v>433</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>62</v>
+        <v>434</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>63</v>
+        <v>435</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>63</v>
+        <v>436</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>64</v>
+        <v>437</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>64</v>
+        <v>240</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>65</v>
+        <v>438</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>65</v>
+        <v>439</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>59</v>
+        <v>440</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>59</v>
+        <v>441</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>66</v>
+        <v>428</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>66</v>
+        <v>442</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>67</v>
+        <v>443</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>67</v>
+        <v>444</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>54</v>
+        <v>99</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>54</v>
+        <v>310</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>54</v>
+        <v>445</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>68</v>
+        <v>446</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>68</v>
+        <v>447</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>69</v>
+        <v>448</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>69</v>
+        <v>449</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>70</v>
+        <v>450</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>70</v>
+        <v>260</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>71</v>
+        <v>451</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>71</v>
+        <v>451</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>72</v>
+        <v>451</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>72</v>
+        <v>452</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>73</v>
+        <v>452</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>73</v>
+        <v>453</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>74</v>
+        <v>454</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>74</v>
+        <v>455</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>74</v>
+        <v>456</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>75</v>
+        <v>457</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>75</v>
+        <v>458</v>
       </c>
     </row>
     <row r="584">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>76</v>
+        <v>459</v>
       </c>
     </row>
     <row r="585">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="B585" t="n">
-        <v>76</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
